--- a/Resources/2012/Advanced_Percentile_2012.xlsx
+++ b/Resources/2012/Advanced_Percentile_2012.xlsx
@@ -1630,7 +1630,7 @@
     <t>Brandan Wright</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Deron Williams</t>
@@ -1687,7 +1687,7 @@
     <t>Jarrett Jack</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Eric Gordon</t>
@@ -2116,7 +2116,7 @@
     <t>Cartier Martin</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Trey Johnson</t>
@@ -2164,7 +2164,7 @@
     <t>Alec Burks</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Josh Harrellson</t>
@@ -2239,7 +2239,7 @@
     <t>Enes Kanter</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>J.J. Hickson</t>
